--- a/22 feb/pivottable example1 (1).xlsx
+++ b/22 feb/pivottable example1 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonuk\OneDrive\Desktop\ExcelInClass\22 feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B610535-74EC-4605-9186-6EAE154D8AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF9973F-6657-4101-9B99-3A8E9A2B25D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="43">
   <si>
     <t>Country</t>
   </si>
@@ -247,13 +247,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,20 +513,39 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -551,20 +570,39 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -589,19 +627,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -658,19 +684,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -727,19 +741,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -796,20 +798,39 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -834,20 +855,39 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -943,7 +983,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Beans</c:v>
+                  <c:v>Apple</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1022,7 +1062,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vegetables</c:v>
+                  <c:v>Fruit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1034,7 +1074,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>57281</c:v>
+                  <c:v>191257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,7 +1094,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Broccoli</c:v>
+                  <c:v>Banana</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1133,7 +1173,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vegetables</c:v>
+                  <c:v>Fruit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1145,7 +1185,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>142439</c:v>
+                  <c:v>340295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,7 +1205,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Carrots</c:v>
+                  <c:v>Mango</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1244,7 +1284,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vegetables</c:v>
+                  <c:v>Fruit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1256,7 +1296,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>136945</c:v>
+                  <c:v>57079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,6 +1304,117 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-AADD-4BEF-9D0F-665AB78B9D4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Orange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$5:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fruit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$5:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>104438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C17A-4F69-B2DC-B8B1FB7825C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2631,40 +2782,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>39531</c:v>
+                  <c:v>50132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22534</c:v>
+                  <c:v>40228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33108</c:v>
+                  <c:v>71458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17774</c:v>
+                  <c:v>31700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54087</c:v>
+                  <c:v>149252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25752</c:v>
+                  <c:v>25848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27337</c:v>
+                  <c:v>53398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35544</c:v>
+                  <c:v>33450</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26538</c:v>
+                  <c:v>75895</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14964</c:v>
+                  <c:v>37651</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8141</c:v>
+                  <c:v>65599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31355</c:v>
+                  <c:v>58458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3558,25 +3709,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40492</c:v>
+                  <c:v>91221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12407</c:v>
+                  <c:v>82338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15125</c:v>
+                  <c:v>125931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88738</c:v>
+                  <c:v>66430</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4390</c:v>
+                  <c:v>62392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85351</c:v>
+                  <c:v>87786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90162</c:v>
+                  <c:v>176971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4016,40 +4167,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>39531</c:v>
+                  <c:v>50132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22534</c:v>
+                  <c:v>40228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33108</c:v>
+                  <c:v>71458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17774</c:v>
+                  <c:v>31700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54087</c:v>
+                  <c:v>149252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25752</c:v>
+                  <c:v>25848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27337</c:v>
+                  <c:v>53398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35544</c:v>
+                  <c:v>33450</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26538</c:v>
+                  <c:v>75895</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14964</c:v>
+                  <c:v>37651</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8141</c:v>
+                  <c:v>65599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31355</c:v>
+                  <c:v>58458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4763,7 +4914,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Beans</c:v>
+                  <c:v>Apple</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4784,7 +4935,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vegetables</c:v>
+                  <c:v>Fruit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4796,7 +4947,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>57281</c:v>
+                  <c:v>191257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4816,7 +4967,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Broccoli</c:v>
+                  <c:v>Banana</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4837,7 +4988,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vegetables</c:v>
+                  <c:v>Fruit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4849,7 +5000,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>142439</c:v>
+                  <c:v>340295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4869,7 +5020,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Carrots</c:v>
+                  <c:v>Mango</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4890,7 +5041,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vegetables</c:v>
+                  <c:v>Fruit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4902,7 +5053,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>136945</c:v>
+                  <c:v>57079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4910,6 +5061,59 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-A3C7-4E16-ABF0-E01D80A2D076}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Orange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$5:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fruit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$5:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>104438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3B6F-4F09-8207-A0C01462D779}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5200,8 +5404,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5243,6 +5446,132 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -5280,6 +5609,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-09A2-479B-90C3-32AF58A2B1FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5299,6 +5633,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-09A2-479B-90C3-32AF58A2B1FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5318,6 +5657,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-09A2-479B-90C3-32AF58A2B1FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5337,6 +5681,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-09A2-479B-90C3-32AF58A2B1FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5356,6 +5705,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-09A2-479B-90C3-32AF58A2B1FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5375,6 +5729,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-09A2-479B-90C3-32AF58A2B1FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -5396,6 +5755,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-09A2-479B-90C3-32AF58A2B1FE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5486,25 +5850,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40492</c:v>
+                  <c:v>91221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12407</c:v>
+                  <c:v>82338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15125</c:v>
+                  <c:v>125931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88738</c:v>
+                  <c:v>66430</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4390</c:v>
+                  <c:v>62392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85351</c:v>
+                  <c:v>87786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90162</c:v>
+                  <c:v>176971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,8 +6108,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5786,6 +6149,222 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5834,6 +6413,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-03C1-41A4-8A34-9EAD2F1C9FDD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5853,6 +6437,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-03C1-41A4-8A34-9EAD2F1C9FDD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5872,6 +6461,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-03C1-41A4-8A34-9EAD2F1C9FDD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5893,6 +6487,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-03C1-41A4-8A34-9EAD2F1C9FDD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5914,6 +6513,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-03C1-41A4-8A34-9EAD2F1C9FDD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5935,6 +6539,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-03C1-41A4-8A34-9EAD2F1C9FDD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -5957,6 +6566,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-03C1-41A4-8A34-9EAD2F1C9FDD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -5979,6 +6593,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-03C1-41A4-8A34-9EAD2F1C9FDD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -6001,6 +6620,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-03C1-41A4-8A34-9EAD2F1C9FDD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -6022,6 +6646,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-03C1-41A4-8A34-9EAD2F1C9FDD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -6043,6 +6672,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-03C1-41A4-8A34-9EAD2F1C9FDD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -6064,6 +6698,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-03C1-41A4-8A34-9EAD2F1C9FDD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6169,40 +6808,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>39531</c:v>
+                  <c:v>50132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22534</c:v>
+                  <c:v>40228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33108</c:v>
+                  <c:v>71458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17774</c:v>
+                  <c:v>31700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54087</c:v>
+                  <c:v>149252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25752</c:v>
+                  <c:v>25848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27337</c:v>
+                  <c:v>53398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35544</c:v>
+                  <c:v>33450</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26538</c:v>
+                  <c:v>75895</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14964</c:v>
+                  <c:v>37651</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8141</c:v>
+                  <c:v>65599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31355</c:v>
+                  <c:v>58458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6508,25 +7147,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Germany</c:v>
+                  <c:v>United States</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Australia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>United Kingdom</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Australia</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Canada</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>France</c:v>
+                  <c:v>New Zealand</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>New Zealand</c:v>
+                  <c:v>Germany</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6538,25 +7177,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,40 +7618,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>39531</c:v>
+                  <c:v>50132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22534</c:v>
+                  <c:v>40228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33108</c:v>
+                  <c:v>71458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17774</c:v>
+                  <c:v>31700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54087</c:v>
+                  <c:v>149252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25752</c:v>
+                  <c:v>25848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27337</c:v>
+                  <c:v>53398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35544</c:v>
+                  <c:v>33450</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26538</c:v>
+                  <c:v>75895</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14964</c:v>
+                  <c:v>37651</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8141</c:v>
+                  <c:v>65599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31355</c:v>
+                  <c:v>58458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12402,8 +13041,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>62607</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Category">
@@ -12426,7 +13065,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15199,7 +15838,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51BD8DA5-32F7-4177-B489-2B5B19384C4B}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51BD8DA5-32F7-4177-B489-2B5B19384C4B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J6:L85" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -16042,8 +16681,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB5B790F-51E2-4C8C-A48A-ED0DB4F427E9}" name="PivotTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A3:E6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB5B790F-51E2-4C8C-A48A-ED0DB4F427E9}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:F6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
@@ -16060,8 +16699,8 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
-        <item h="1" x="1"/>
-        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16247,7 +16886,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="1"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -16256,15 +16895,18 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="5">
     <i>
-      <x v="2"/>
+      <x/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -16474,15 +17116,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB2925EF-0681-4451-AF3B-A0C6B15C6FDC}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB2925EF-0681-4451-AF3B-A0C6B15C6FDC}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="1"/>
-        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16709,7 +17351,7 @@
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="9">
+  <chartFormats count="16">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -16812,6 +17454,90 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -16826,7 +17552,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{810BDBC4-7B45-4E1E-8978-41ABCA22503B}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{810BDBC4-7B45-4E1E-8978-41ABCA22503B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -16844,8 +17570,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="1"/>
-        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -17664,7 +18390,7 @@
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="14">
+  <chartFormats count="26">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -17827,6 +18553,150 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -17841,7 +18711,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0344A121-C909-4B58-A898-2C654ACA8194}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0344A121-C909-4B58-A898-2C654ACA8194}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -17859,8 +18729,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="1"/>
-        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -18439,13 +19309,10 @@
   </rowFields>
   <rowItems count="8">
     <i>
-      <x v="3"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
+      <x v="2"/>
     </i>
     <i>
       <x/>
@@ -18454,10 +19321,13 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -18493,7 +19363,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCDDF04C-F78C-47F7-A89F-7C550E4EAF6D}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCDDF04C-F78C-47F7-A89F-7C550E4EAF6D}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -18511,8 +19381,8 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
-        <item h="1" x="1"/>
-        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19082,7 +19952,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="1"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -19133,7 +20003,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98783A02-844F-4E99-BFCA-445C39D002B4}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98783A02-844F-4E99-BFCA-445C39D002B4}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -19151,8 +20021,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="1"/>
-        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19810,8 +20680,8 @@
   <data>
     <tabular pivotCacheId="49813250">
       <items count="2">
-        <i x="1"/>
-        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="0"/>
       </items>
     </tabular>
   </data>
@@ -20314,10 +21184,10 @@
       <c r="J7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7">
         <v>146</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7">
         <v>693069</v>
       </c>
     </row>
@@ -20343,10 +21213,10 @@
       <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8">
         <v>40</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8">
         <v>191257</v>
       </c>
     </row>
@@ -20369,13 +21239,13 @@
       <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9">
         <v>16794</v>
       </c>
     </row>
@@ -20398,13 +21268,13 @@
       <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10">
         <v>4</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10">
         <v>19715</v>
       </c>
     </row>
@@ -20427,13 +21297,13 @@
       <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11">
         <v>25702</v>
       </c>
     </row>
@@ -20456,13 +21326,13 @@
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12">
         <v>14586</v>
       </c>
     </row>
@@ -20485,13 +21355,13 @@
       <c r="F13" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13">
         <v>5</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13">
         <v>22557</v>
       </c>
     </row>
@@ -20514,13 +21384,13 @@
       <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14">
         <v>6126</v>
       </c>
     </row>
@@ -20543,13 +21413,13 @@
       <c r="F15" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15">
         <v>2034</v>
       </c>
     </row>
@@ -20572,13 +21442,13 @@
       <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16">
         <v>4</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16">
         <v>22611</v>
       </c>
     </row>
@@ -20601,13 +21471,13 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17">
         <v>8489</v>
       </c>
     </row>
@@ -20630,13 +21500,13 @@
       <c r="F18" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18">
         <v>15331</v>
       </c>
     </row>
@@ -20659,13 +21529,13 @@
       <c r="F19" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19">
         <v>11978</v>
       </c>
     </row>
@@ -20688,13 +21558,13 @@
       <c r="F20" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20">
         <v>6</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20">
         <v>25334</v>
       </c>
     </row>
@@ -20720,10 +21590,10 @@
       <c r="J21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21">
         <v>71</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21">
         <v>340295</v>
       </c>
     </row>
@@ -20746,13 +21616,13 @@
       <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22">
         <v>7</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22">
         <v>29728</v>
       </c>
     </row>
@@ -20775,13 +21645,13 @@
       <c r="F23" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23">
         <v>9228</v>
       </c>
     </row>
@@ -20804,13 +21674,13 @@
       <c r="F24" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24">
         <v>6</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24">
         <v>26224</v>
       </c>
     </row>
@@ -20833,13 +21703,13 @@
       <c r="F25" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25">
         <v>5</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25">
         <v>16001</v>
       </c>
     </row>
@@ -20862,13 +21732,13 @@
       <c r="F26" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26">
         <v>13</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26">
         <v>69521</v>
       </c>
     </row>
@@ -20891,13 +21761,13 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27">
         <v>4</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27">
         <v>15208</v>
       </c>
     </row>
@@ -20920,13 +21790,13 @@
       <c r="F28" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28">
         <v>5</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28">
         <v>31336</v>
       </c>
     </row>
@@ -20949,13 +21819,13 @@
       <c r="F29" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29">
         <v>2</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29">
         <v>9980</v>
       </c>
     </row>
@@ -20978,13 +21848,13 @@
       <c r="F30" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30">
         <v>10</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30">
         <v>51835</v>
       </c>
     </row>
@@ -21007,13 +21877,13 @@
       <c r="F31" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31">
         <v>6</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31">
         <v>22320</v>
       </c>
     </row>
@@ -21036,13 +21906,13 @@
       <c r="F32" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32">
         <v>4</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32">
         <v>29530</v>
       </c>
     </row>
@@ -21065,13 +21935,13 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33">
         <v>6</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33">
         <v>29384</v>
       </c>
     </row>
@@ -21097,10 +21967,10 @@
       <c r="J34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34">
         <v>11</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34">
         <v>57079</v>
       </c>
     </row>
@@ -21123,13 +21993,13 @@
       <c r="F35" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35">
         <v>2</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35">
         <v>9029</v>
       </c>
     </row>
@@ -21152,13 +22022,13 @@
       <c r="F36" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36">
         <v>3663</v>
       </c>
     </row>
@@ -21181,13 +22051,13 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37">
         <v>6</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37">
         <v>33384</v>
       </c>
     </row>
@@ -21210,13 +22080,13 @@
       <c r="F38" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38">
         <v>1</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38">
         <v>5480</v>
       </c>
     </row>
@@ -21239,13 +22109,13 @@
       <c r="F39" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39">
         <v>1</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39">
         <v>5523</v>
       </c>
     </row>
@@ -21271,10 +22141,10 @@
       <c r="J40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40">
         <v>24</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40">
         <v>104438</v>
       </c>
     </row>
@@ -21297,13 +22167,13 @@
       <c r="F41" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41">
         <v>1</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41">
         <v>3610</v>
       </c>
     </row>
@@ -21326,13 +22196,13 @@
       <c r="F42" t="s">
         <v>9</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42">
         <v>1</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42">
         <v>2256</v>
       </c>
     </row>
@@ -21355,13 +22225,13 @@
       <c r="F43" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43">
         <v>2</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43">
         <v>15869</v>
       </c>
     </row>
@@ -21384,13 +22254,13 @@
       <c r="F44" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44">
         <v>1</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44">
         <v>1113</v>
       </c>
     </row>
@@ -21413,13 +22283,13 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45">
         <v>5</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45">
         <v>23790</v>
       </c>
     </row>
@@ -21442,13 +22312,13 @@
       <c r="F46" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46">
         <v>1</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46">
         <v>4514</v>
       </c>
     </row>
@@ -21471,13 +22341,13 @@
       <c r="F47" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47">
         <v>5</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47">
         <v>14548</v>
       </c>
     </row>
@@ -21500,13 +22370,13 @@
       <c r="F48" t="s">
         <v>12</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48">
         <v>1</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48">
         <v>859</v>
       </c>
     </row>
@@ -21529,13 +22399,13 @@
       <c r="F49" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49">
         <v>2</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49">
         <v>10048</v>
       </c>
     </row>
@@ -21558,13 +22428,13 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50">
         <v>3</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50">
         <v>24091</v>
       </c>
     </row>
@@ -21587,13 +22457,13 @@
       <c r="F51" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51">
         <v>2</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51">
         <v>3740</v>
       </c>
     </row>
@@ -21619,10 +22489,10 @@
       <c r="J52" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52">
         <v>67</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52">
         <v>336665</v>
       </c>
     </row>
@@ -21648,10 +22518,10 @@
       <c r="J53" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53">
         <v>13</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53">
         <v>57281</v>
       </c>
     </row>
@@ -21674,13 +22544,13 @@
       <c r="F54" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J54" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54">
         <v>1</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54">
         <v>2626</v>
       </c>
     </row>
@@ -21703,13 +22573,13 @@
       <c r="F55" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J55" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55">
         <v>3</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55">
         <v>15823</v>
       </c>
     </row>
@@ -21732,13 +22602,13 @@
       <c r="F56" t="s">
         <v>9</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56">
         <v>1</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56">
         <v>6045</v>
       </c>
     </row>
@@ -21761,13 +22631,13 @@
       <c r="F57" t="s">
         <v>21</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="J57" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57">
         <v>2</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57">
         <v>8096</v>
       </c>
     </row>
@@ -21790,13 +22660,13 @@
       <c r="F58" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="J58" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58">
         <v>1</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58">
         <v>8416</v>
       </c>
     </row>
@@ -21819,13 +22689,13 @@
       <c r="F59" t="s">
         <v>12</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59">
         <v>1</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59">
         <v>5761</v>
       </c>
     </row>
@@ -21848,13 +22718,13 @@
       <c r="F60" t="s">
         <v>8</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="J60" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K60">
         <v>1</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60">
         <v>5015</v>
       </c>
     </row>
@@ -21877,13 +22747,13 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="J61" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61">
         <v>3</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61">
         <v>5499</v>
       </c>
     </row>
@@ -21909,10 +22779,10 @@
       <c r="J62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K62">
         <v>27</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62">
         <v>142439</v>
       </c>
     </row>
@@ -21935,13 +22805,13 @@
       <c r="F63" t="s">
         <v>10</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K63">
         <v>5</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63">
         <v>30732</v>
       </c>
     </row>
@@ -21964,13 +22834,13 @@
       <c r="F64" t="s">
         <v>8</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="J64" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64">
         <v>1</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64">
         <v>1557</v>
       </c>
     </row>
@@ -21993,13 +22863,13 @@
       <c r="F65" t="s">
         <v>10</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K65">
         <v>1</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65">
         <v>5341</v>
       </c>
     </row>
@@ -22022,13 +22892,13 @@
       <c r="F66" t="s">
         <v>9</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66">
         <v>2</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66">
         <v>9508</v>
       </c>
     </row>
@@ -22051,13 +22921,13 @@
       <c r="F67" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K67">
         <v>4</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67">
         <v>17104</v>
       </c>
     </row>
@@ -22080,13 +22950,13 @@
       <c r="F68" t="s">
         <v>21</v>
       </c>
-      <c r="J68" s="8" t="s">
+      <c r="J68" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K68">
         <v>3</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68">
         <v>25752</v>
       </c>
     </row>
@@ -22109,13 +22979,13 @@
       <c r="F69" t="s">
         <v>12</v>
       </c>
-      <c r="J69" s="8" t="s">
+      <c r="J69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K69">
         <v>3</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69">
         <v>13170</v>
       </c>
     </row>
@@ -22138,13 +23008,13 @@
       <c r="F70" t="s">
         <v>8</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="J70" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K70">
         <v>3</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70">
         <v>20386</v>
       </c>
     </row>
@@ -22167,13 +23037,13 @@
       <c r="F71" t="s">
         <v>8</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71">
         <v>4</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71">
         <v>18605</v>
       </c>
     </row>
@@ -22196,13 +23066,13 @@
       <c r="F72" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="J72" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K72">
         <v>1</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L72">
         <v>284</v>
       </c>
     </row>
@@ -22228,10 +23098,10 @@
       <c r="J73" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K73">
         <v>27</v>
       </c>
-      <c r="L73" s="7">
+      <c r="L73">
         <v>136945</v>
       </c>
     </row>
@@ -22254,13 +23124,13 @@
       <c r="F74" t="s">
         <v>10</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K74">
         <v>2</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L74">
         <v>6173</v>
       </c>
     </row>
@@ -22283,13 +23153,13 @@
       <c r="F75" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K75" s="7">
+      <c r="K75">
         <v>1</v>
       </c>
-      <c r="L75" s="7">
+      <c r="L75">
         <v>5154</v>
       </c>
     </row>
@@ -22312,13 +23182,13 @@
       <c r="F76" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K76">
         <v>3</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L76">
         <v>21722</v>
       </c>
     </row>
@@ -22341,13 +23211,13 @@
       <c r="F77" t="s">
         <v>8</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="J77" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K77" s="7">
+      <c r="K77">
         <v>2</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L77">
         <v>8266</v>
       </c>
     </row>
@@ -22370,13 +23240,13 @@
       <c r="F78" t="s">
         <v>8</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="J78" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K78">
         <v>5</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L78">
         <v>28887</v>
       </c>
     </row>
@@ -22399,13 +23269,13 @@
       <c r="F79" t="s">
         <v>9</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K79" s="7">
+      <c r="K79">
         <v>1</v>
       </c>
-      <c r="L79" s="7">
+      <c r="L79">
         <v>5751</v>
       </c>
     </row>
@@ -22428,13 +23298,13 @@
       <c r="F80" t="s">
         <v>20</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K80">
         <v>2</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L80">
         <v>9397</v>
       </c>
     </row>
@@ -22457,13 +23327,13 @@
       <c r="F81" t="s">
         <v>9</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K81" s="7">
+      <c r="K81">
         <v>2</v>
       </c>
-      <c r="L81" s="7">
+      <c r="L81">
         <v>7933</v>
       </c>
     </row>
@@ -22486,13 +23356,13 @@
       <c r="F82" t="s">
         <v>10</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K82">
         <v>2</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L82">
         <v>9949</v>
       </c>
     </row>
@@ -22515,13 +23385,13 @@
       <c r="F83" t="s">
         <v>12</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J83" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K83" s="7">
+      <c r="K83">
         <v>2</v>
       </c>
-      <c r="L83" s="7">
+      <c r="L83">
         <v>7857</v>
       </c>
     </row>
@@ -22544,13 +23414,13 @@
       <c r="F84" t="s">
         <v>9</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K84">
         <v>5</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L84">
         <v>25856</v>
       </c>
     </row>
@@ -22576,10 +23446,10 @@
       <c r="J85" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K85" s="7">
+      <c r="K85">
         <v>213</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L85">
         <v>1029734</v>
       </c>
     </row>
@@ -25173,2411 +26043,2411 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990EB4E5-6EE1-46B3-8284-655ABF4E6E1B}">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
       <selection sqref="A1:V100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
-      <c r="U82" s="9"/>
-      <c r="V82" s="9"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9"/>
-      <c r="V84" s="9"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="9"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="9"/>
-      <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
-      <c r="U87" s="9"/>
-      <c r="V87" s="9"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="9"/>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="9"/>
-      <c r="R88" s="9"/>
-      <c r="S88" s="9"/>
-      <c r="T88" s="9"/>
-      <c r="U88" s="9"/>
-      <c r="V88" s="9"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="9"/>
-      <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
-      <c r="U89" s="9"/>
-      <c r="V89" s="9"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="9"/>
-      <c r="S90" s="9"/>
-      <c r="T90" s="9"/>
-      <c r="U90" s="9"/>
-      <c r="V90" s="9"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-      <c r="U91" s="9"/>
-      <c r="V91" s="9"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
-      <c r="U92" s="9"/>
-      <c r="V92" s="9"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="9"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
-      <c r="U93" s="9"/>
-      <c r="V93" s="9"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="9"/>
-      <c r="S94" s="9"/>
-      <c r="T94" s="9"/>
-      <c r="U94" s="9"/>
-      <c r="V94" s="9"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="8"/>
+      <c r="V94" s="8"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="9"/>
-      <c r="R95" s="9"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
-      <c r="U95" s="9"/>
-      <c r="V95" s="9"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="8"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="9"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9"/>
-      <c r="R96" s="9"/>
-      <c r="S96" s="9"/>
-      <c r="T96" s="9"/>
-      <c r="U96" s="9"/>
-      <c r="V96" s="9"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9"/>
-      <c r="R97" s="9"/>
-      <c r="S97" s="9"/>
-      <c r="T97" s="9"/>
-      <c r="U97" s="9"/>
-      <c r="V97" s="9"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
-      <c r="R98" s="9"/>
-      <c r="S98" s="9"/>
-      <c r="T98" s="9"/>
-      <c r="U98" s="9"/>
-      <c r="V98" s="9"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
-      <c r="R99" s="9"/>
-      <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
-      <c r="U99" s="9"/>
-      <c r="V99" s="9"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="9"/>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="9"/>
-      <c r="R100" s="9"/>
-      <c r="S100" s="9"/>
-      <c r="T100" s="9"/>
-      <c r="U100" s="9"/>
-      <c r="V100" s="9"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -27597,7 +28467,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17FBBF6-DDF8-4877-A7B6-354C3EA9819B}">
-  <dimension ref="A3:E6"/>
+  <dimension ref="A3:F6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
@@ -27607,15 +28477,16 @@
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -27623,55 +28494,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>57281</v>
-      </c>
-      <c r="C5" s="7">
-        <v>142439</v>
-      </c>
-      <c r="D5" s="7">
-        <v>136945</v>
-      </c>
-      <c r="E5" s="7">
-        <v>336665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>191257</v>
+      </c>
+      <c r="C5" s="9">
+        <v>340295</v>
+      </c>
+      <c r="D5" s="9">
+        <v>57079</v>
+      </c>
+      <c r="E5" s="9">
+        <v>104438</v>
+      </c>
+      <c r="F5" s="9">
+        <v>693069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7">
-        <v>57281</v>
-      </c>
-      <c r="C6" s="7">
-        <v>142439</v>
-      </c>
-      <c r="D6" s="7">
-        <v>136945</v>
-      </c>
-      <c r="E6" s="7">
-        <v>336665</v>
+      <c r="B6" s="9">
+        <v>191257</v>
+      </c>
+      <c r="C6" s="9">
+        <v>340295</v>
+      </c>
+      <c r="D6" s="9">
+        <v>57079</v>
+      </c>
+      <c r="E6" s="9">
+        <v>104438</v>
+      </c>
+      <c r="F6" s="9">
+        <v>693069</v>
       </c>
     </row>
   </sheetData>
@@ -27706,64 +28586,64 @@
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7">
-        <v>40492</v>
+      <c r="B4" s="9">
+        <v>91221</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7">
-        <v>12407</v>
+      <c r="B5" s="9">
+        <v>82338</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7">
-        <v>15125</v>
+      <c r="B6" s="9">
+        <v>125931</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7">
-        <v>88738</v>
+      <c r="B7" s="9">
+        <v>66430</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="7">
-        <v>4390</v>
+      <c r="B8" s="9">
+        <v>62392</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
-        <v>85351</v>
+      <c r="B9" s="9">
+        <v>87786</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
-        <v>90162</v>
+      <c r="B10" s="9">
+        <v>176971</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7">
-        <v>336665</v>
+      <c r="B11" s="9">
+        <v>693069</v>
       </c>
     </row>
   </sheetData>
@@ -27798,104 +28678,104 @@
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="7">
-        <v>39531</v>
+      <c r="B4" s="9">
+        <v>50132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="7">
-        <v>22534</v>
+      <c r="B5" s="9">
+        <v>40228</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="7">
-        <v>33108</v>
+      <c r="B6" s="9">
+        <v>71458</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7">
-        <v>17774</v>
+      <c r="B7" s="9">
+        <v>31700</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="7">
-        <v>54087</v>
+      <c r="B8" s="9">
+        <v>149252</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7">
-        <v>25752</v>
+      <c r="B9" s="9">
+        <v>25848</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="7">
-        <v>27337</v>
+      <c r="B10" s="9">
+        <v>53398</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7">
-        <v>35544</v>
+      <c r="B11" s="9">
+        <v>33450</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="7">
-        <v>26538</v>
+      <c r="B12" s="9">
+        <v>75895</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="7">
-        <v>14964</v>
+      <c r="B13" s="9">
+        <v>37651</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="7">
-        <v>8141</v>
+      <c r="B14" s="9">
+        <v>65599</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="7">
-        <v>31355</v>
+      <c r="B15" s="9">
+        <v>58458</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7">
-        <v>336665</v>
+      <c r="B16" s="9">
+        <v>693069</v>
       </c>
     </row>
   </sheetData>
@@ -27932,66 +28812,66 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="9">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="9">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="9">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="9">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="7">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="9">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7">
-        <v>67</v>
+      <c r="B11" s="9">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -28013,7 +28893,7 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
@@ -28060,60 +28940,60 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>40492</v>
-      </c>
-      <c r="C5" s="7">
-        <v>12407</v>
-      </c>
-      <c r="D5" s="7">
-        <v>15125</v>
-      </c>
-      <c r="E5" s="7">
-        <v>88738</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4390</v>
-      </c>
-      <c r="G5" s="7">
-        <v>85351</v>
-      </c>
-      <c r="H5" s="7">
-        <v>90162</v>
-      </c>
-      <c r="I5" s="7">
-        <v>336665</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>91221</v>
+      </c>
+      <c r="C5" s="9">
+        <v>82338</v>
+      </c>
+      <c r="D5" s="9">
+        <v>125931</v>
+      </c>
+      <c r="E5" s="9">
+        <v>66430</v>
+      </c>
+      <c r="F5" s="9">
+        <v>62392</v>
+      </c>
+      <c r="G5" s="9">
+        <v>87786</v>
+      </c>
+      <c r="H5" s="9">
+        <v>176971</v>
+      </c>
+      <c r="I5" s="9">
+        <v>693069</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7">
-        <v>40492</v>
-      </c>
-      <c r="C6" s="7">
-        <v>12407</v>
-      </c>
-      <c r="D6" s="7">
-        <v>15125</v>
-      </c>
-      <c r="E6" s="7">
-        <v>88738</v>
-      </c>
-      <c r="F6" s="7">
-        <v>4390</v>
-      </c>
-      <c r="G6" s="7">
-        <v>85351</v>
-      </c>
-      <c r="H6" s="7">
-        <v>90162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>336665</v>
+      <c r="B6" s="9">
+        <v>91221</v>
+      </c>
+      <c r="C6" s="9">
+        <v>82338</v>
+      </c>
+      <c r="D6" s="9">
+        <v>125931</v>
+      </c>
+      <c r="E6" s="9">
+        <v>66430</v>
+      </c>
+      <c r="F6" s="9">
+        <v>62392</v>
+      </c>
+      <c r="G6" s="9">
+        <v>87786</v>
+      </c>
+      <c r="H6" s="9">
+        <v>176971</v>
+      </c>
+      <c r="I6" s="9">
+        <v>693069</v>
       </c>
     </row>
   </sheetData>
@@ -28153,104 +29033,104 @@
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="7">
-        <v>39531</v>
+      <c r="B4" s="9">
+        <v>50132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="7">
-        <v>22534</v>
+      <c r="B5" s="9">
+        <v>40228</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="7">
-        <v>33108</v>
+      <c r="B6" s="9">
+        <v>71458</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7">
-        <v>17774</v>
+      <c r="B7" s="9">
+        <v>31700</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="7">
-        <v>54087</v>
+      <c r="B8" s="9">
+        <v>149252</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7">
-        <v>25752</v>
+      <c r="B9" s="9">
+        <v>25848</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="7">
-        <v>27337</v>
+      <c r="B10" s="9">
+        <v>53398</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7">
-        <v>35544</v>
+      <c r="B11" s="9">
+        <v>33450</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="7">
-        <v>26538</v>
+      <c r="B12" s="9">
+        <v>75895</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="7">
-        <v>14964</v>
+      <c r="B13" s="9">
+        <v>37651</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="7">
-        <v>8141</v>
+      <c r="B14" s="9">
+        <v>65599</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="7">
-        <v>31355</v>
+      <c r="B15" s="9">
+        <v>58458</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7">
-        <v>336665</v>
+      <c r="B16" s="9">
+        <v>693069</v>
       </c>
     </row>
   </sheetData>
